--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D14" s="13" t="n">
-        <v>20.3</v>
+        <v>38.22</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="18">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="D15" s="13" t="n">
-        <v>23.2</v>
+        <v>43.55</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D16" s="13" t="n">
-        <v>28.01</v>
+        <v>52.65</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="18">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D17" s="13" t="n">
-        <v>35.7</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="18">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" s="13" t="n">
-        <v>71.3</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="18">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D19" s="13" t="n">
-        <v>107</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="18">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="13" t="n">
-        <v>168.3</v>
+        <v>314.6</v>
       </c>
     </row>
     <row r="21" ht="23.25" customHeight="1" s="18" thickBot="1">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D21" s="14" t="n">
-        <v>233</v>
+        <v>432.9</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">

--- a/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
+++ b/server/LISTAS/ma/SOGA MULTIFILAMENTO.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="18">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D14" s="13" t="n">
-        <v>20.3</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="18">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="D15" s="13" t="n">
-        <v>23.2</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D16" s="13" t="n">
-        <v>28.01</v>
+        <v>57.85</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="18">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D17" s="13" t="n">
-        <v>35.7</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="18">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" s="13" t="n">
-        <v>71.3</v>
+        <v>147.2</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="18">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D19" s="13" t="n">
-        <v>107</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="18">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="13" t="n">
-        <v>168.3</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" ht="23.25" customHeight="1" s="18" thickBot="1">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D21" s="14" t="n">
-        <v>233</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="18">
